--- a/APP_DEVELOPER/group_test.xlsx
+++ b/APP_DEVELOPER/group_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>SC_NO</t>
   </si>
@@ -31,25 +31,13 @@
     <t>ORDER_QTY</t>
   </si>
   <si>
-    <t>19020014</t>
-  </si>
-  <si>
-    <t>20020038</t>
-  </si>
-  <si>
-    <t>20050010</t>
-  </si>
-  <si>
-    <t>23120021</t>
-  </si>
-  <si>
-    <t>24010024</t>
-  </si>
-  <si>
-    <t>24100007</t>
-  </si>
-  <si>
-    <t>822CD</t>
+    <t>20080002</t>
+  </si>
+  <si>
+    <t>22040023</t>
+  </si>
+  <si>
+    <t>07981T001003500092</t>
   </si>
 </sst>
 </file>
@@ -411,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,16 +430,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>43519</v>
+        <v>44046</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>2.34</v>
       </c>
       <c r="F2">
-        <v>480</v>
+        <v>201.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -462,96 +450,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>43881</v>
+        <v>44666</v>
       </c>
       <c r="E3">
-        <v>6.54</v>
+        <v>2.65</v>
       </c>
       <c r="F3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43965</v>
-      </c>
-      <c r="E4">
-        <v>6.96</v>
-      </c>
-      <c r="F4">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45282</v>
-      </c>
-      <c r="E5">
-        <v>7.65</v>
-      </c>
-      <c r="F5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45320</v>
-      </c>
-      <c r="E6">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="F6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45579</v>
-      </c>
-      <c r="E7">
-        <v>7.6</v>
-      </c>
-      <c r="F7">
-        <v>480</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
